--- a/Inputs/Orange/V1/benefits.xlsx
+++ b/Inputs/Orange/V1/benefits.xlsx
@@ -209,19 +209,19 @@
     <t xml:space="preserve">Network Details</t>
   </si>
   <si>
-    <t xml:space="preserve">NAS Neuron Comprehensive NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS/ Neuron General NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS/ Neuron Restricted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS/ Neuron Super Restricted NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAS/ Neuron Workers </t>
+    <t xml:space="preserve">NAS Comprehensive Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS General Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS Restricted Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS Super Restricted Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS Workers Network (OP &amp; IP available at Hospitals)</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -236,12 +236,10 @@
     <t xml:space="preserve">Chronic Condition Cover</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full 
-*6 months wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 250,000
-*6 months wait</t>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 250,000</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-existing Condition Cover</t>
@@ -263,8 +261,7 @@
     <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery)</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with a cap of AED 500 payable per encounter and an annual aggregate cap of AED 1,000
-Above these caps the insurer will cover 100% of treatment.</t>
+    <t xml:space="preserve">Covered in full </t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
@@ -273,73 +270,37 @@
     <t xml:space="preserve">Out-patient benefits </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Medicines covered in full with $ co-pay; OP covered in full with $ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">co-pay
+    <t xml:space="preserve">Medicines covered in full with $ co-pay; OP covered in full with $ co-pay
+Consultations covered with $ co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physiotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to 15 sessions with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to 12 sessions with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to 6 sessions with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full
+IP- Covered up to AED 10,000 with 10% co-pay
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Consultations covered with $ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">co-pay</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Physiotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to 15 sessions with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to 12 sessions with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to 6 sessions with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 10,000 with 10% co-pay
-</t>
   </si>
   <si>
     <t xml:space="preserve">Maternity Waiting Period</t>
   </si>
   <si>
-    <t xml:space="preserve">280 days wait for new applicants</t>
+    <t xml:space="preserve">280-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
   </si>
   <si>
     <t xml:space="preserve">Dental Benefit</t>
@@ -396,7 +357,7 @@
     <t xml:space="preserve">Wellness &amp; Health Screening</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered</t>
+    <t xml:space="preserve">Covered as per DHA guidelines</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency Evacuation</t>
@@ -525,6 +486,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -537,12 +505,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -619,7 +581,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,44 +614,60 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -780,11 +758,11 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="70.31"/>
@@ -861,7 +839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -897,50 +875,50 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
+      <c r="E7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,48 +935,48 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1019,22 +997,22 @@
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1075,48 +1053,48 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1134,25 +1112,25 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1190,28 +1168,28 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1222,19 +1200,19 @@
       <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="20" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1245,19 +1223,19 @@
       <c r="B23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1347,22 +1325,22 @@
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1370,7 +1348,7 @@
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1393,7 +1371,7 @@
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1416,7 +1394,7 @@
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="23" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1439,7 +1417,7 @@
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1462,7 +1440,7 @@
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1485,7 +1463,7 @@
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1508,7 +1486,7 @@
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1530,7 +1508,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Inputs/Orange/V1/benefits.xlsx
+++ b/Inputs/Orange/V1/benefits.xlsx
@@ -396,7 +396,7 @@
     <t xml:space="preserve">$</t>
   </si>
   <si>
-    <t xml:space="preserve">Nil/Nil/Nil-Nil/Nil/10%-Nil/Nil/10%-10%/Nil/10%-10%/Nil/10%</t>
+    <t xml:space="preserve">Nil/Nil/Nil-Nil/Nil/10%-Nil/Nil/10%-20%/Nil/10%-20%/Nil/10%</t>
   </si>
   <si>
     <t xml:space="preserve">In-patient only</t>
@@ -758,11 +758,11 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="70.31"/>
